--- a/Data/Transitions/18861924Translation.xlsx
+++ b/Data/Transitions/18861924Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="727">
   <si>
     <t>id</t>
   </si>
@@ -28,7 +28,7 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 0.7259633800658852}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690755208333334}</t>
+    <t>{14.0: 0.9691257718557036}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -142,7 +142,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
+    <t>{311.0: 0.023413950227830355}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -166,13 +166,13 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286}</t>
+    <t>{764.0: 0.1490527567751253}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.39748493443127403}</t>
+    <t>{86.0: 0.39561049492763845}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.7130271104329559}</t>
+    <t>{98.0: 0.7121995276675722}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -250,10 +250,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008141609952717104}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008141467939881864}</t>
   </si>
   <si>
     <t>{109.0: 1.0}</t>
@@ -265,25 +265,25 @@
     <t>{139.0: 0.9274604952096553}</t>
   </si>
   <si>
-    <t>{141.0: 0.03256451940662467}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.678207582535171, 762.0: 0.7010364992187316}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.731822893528802}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9569793200618738}</t>
+    <t>{141.0: 0.0324770735167452}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.6782688852956832, 762.0: 0.7010364992187316}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.7317831753554502}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9569578564997833}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.8079426948749397, 764.0: 0.02364448224537529}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.810614795845075, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -301,7 +301,7 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -310,7 +310,7 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922}</t>
+    <t>{165.0: 0.9614104302798668}</t>
   </si>
   <si>
     <t>{166.0: 1.0}</t>
@@ -337,7 +337,7 @@
     <t>{173.0: 0.8485467756584922}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 534.0: 0.04851715745215711}</t>
+    <t>{174.0: 1.0, 534.0: 0.046148460782555245}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,13 +349,13 @@
     <t>{562.0: 0.3589476967869398}</t>
   </si>
   <si>
-    <t>{178.0: 1.0, 14.0: 0.030924479166666668}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.031122687395578948}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.925063318636872}</t>
+    <t>{178.0: 1.0, 14.0: 0.03087422814429639}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.028080106910640466}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9351732379460341}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -364,7 +364,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.047477041276882896}</t>
+    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.04736108044332734}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -382,7 +382,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -409,7 +409,7 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.2476711361212631}</t>
+    <t>{897.0: 0.24715558615193015}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -478,13 +478,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6901002596113491}</t>
+    <t>{246.0: 0.6903288566447952}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -493,13 +496,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.8066747612911751}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.8066389006587737}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -538,13 +541,13 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.691672685986975}</t>
+    <t>{264.0: 0.6906005085025639}</t>
   </si>
   <si>
     <t>{265.0: 0.6807426881367072}</t>
   </si>
   <si>
-    <t>{834.0: 0.04678007418275025, 887.0: 0.17772841321070795}</t>
+    <t>{834.0: 0.04740869776067081, 887.0: 0.17890336920659178}</t>
   </si>
   <si>
     <t>{268.0: 0.8952197553239691}</t>
@@ -565,13 +568,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.3946098826756189}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6992746637967333, 180.0: 0.013996985868565445}</t>
+    <t>{686.0: 0.39461948541510167}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6992746637967333, 180.0: 0.02295240336741064}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -595,7 +598,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.15746955604131482}</t>
+    <t>{909.0: 0.1599143866049324}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -604,7 +607,7 @@
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
@@ -631,7 +634,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.5243254148187214}</t>
+    <t>{298.0: 0.5212564069352182}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,7 +658,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.40590425741616165}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -670,7 +673,7 @@
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -694,19 +697,16 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.28697288956704414}</t>
+    <t>{98.0: 0.28780047233242784}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -718,7 +718,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.942213972290207}</t>
+    <t>{404.0: 0.9421964542058993}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -769,7 +769,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
+    <t>{423.0: 0.9963346269943941}</t>
   </si>
   <si>
     <t>{424.0: 1.0}</t>
@@ -793,10 +793,10 @@
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -805,7 +805,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -817,7 +817,7 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
@@ -829,7 +829,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.841880929465145, 595.0: 0.05741455562213509}</t>
+    <t>{476.0: 0.8402999583391195, 595.0: 0.05695984354954446}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -859,7 +859,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.5247579841756855, 837.0: 0.0070212990658312146}</t>
+    <t>{486.0: 0.5225689544852539, 837.0: 0.007175279452255245}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -880,19 +880,19 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.156676093227567e-05}</t>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.152665026293531e-05}</t>
   </si>
   <si>
     <t>{494.0: 0.9441460794844253}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.967200526546731}</t>
+    <t>{497.0: 0.9670759235809062}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -901,13 +901,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.21443956244325174, 180.0: 0.004292315567223292}</t>
+    <t>{277.0: 0.21357773180695558, 180.0: 0.007010295817259658}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.1870200326304875}</t>
+    <t>{534.0: 0.17598260269811342}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -940,13 +940,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.44192687246253753}</t>
+    <t>{534.0: 0.4667568493776422}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8551437537104571, 837.0: 0.03639104034620442}</t>
+    <t>{604.0: 0.8534475447375116, 837.0: 0.03727082234591006}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -955,7 +955,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -1018,10 +1018,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.8768705547652916}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715}</t>
+    <t>{580.0: 0.8765544780376497}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1033,7 +1033,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 1.0, 434.0: 0.019332161687170474}</t>
+    <t>{585.0: 1.0, 434.0: 0.017354719957927953}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1054,13 +1054,13 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.7044783923693807}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.6549268314805103}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{593.0: 0.7047938629038607}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.6553396520161082}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1069,7 +1069,7 @@
     <t>{598.0: 1.0}</t>
   </si>
   <si>
-    <t>{599.0: 0.9974362261248558}</t>
+    <t>{599.0: 0.9973621735689792}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1084,7 +1084,7 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1114,7 +1114,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1123,7 +1123,7 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.28258191672825816}</t>
+    <t>{246.0: 0.2823732151649434}</t>
   </si>
   <si>
     <t>{619.0: 1.0}</t>
@@ -1165,7 +1165,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{226.0: 0.06961119065976429, 729.0: 0.053167325649869604}</t>
@@ -1195,7 +1195,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1207,7 +1207,7 @@
     <t>{686.0: 0.6033505789603351}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1228,10 +1228,10 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.434887333236689, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10551084435554689, 857.0: 0.06778087279480037}</t>
+    <t>{86.0: 0.4367505323639863, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10678805148986302, 857.0: 0.06782585611892752}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1240,7 +1240,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1252,7 +1252,7 @@
     <t>{702.0: 0.7641937404896317}</t>
   </si>
   <si>
-    <t>{703.0: 0.716503881793138}</t>
+    <t>{703.0: 0.741020361473347}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1270,16 +1270,16 @@
     <t>{729.0: 0.8205940003572835}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
-  </si>
-  <si>
-    <t>{731.0: 0.5093056179396515}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
+  </si>
+  <si>
+    <t>{731.0: 0.5242772338343619}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.07327451393933096}</t>
+    <t>{733.0: 1.0, 147.0: 0.0792470449799883}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1303,7 +1303,7 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 1.0, 90.0: 0.03364256175254275, 789.0: 0.001348799568384138, 246.0: 0.004715576703282075}</t>
+    <t>{741.0: 1.0, 90.0: 0.03364256175254275, 789.0: 0.0013518385003604902, 246.0: 0.004712142366176076}</t>
   </si>
   <si>
     <t>{758.0: 0.11983160427003459}</t>
@@ -1312,7 +1312,7 @@
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.02858764937119231, 703.0: 0.06822947621023358}</t>
+    <t>{147.0: 0.026817332075437603, 703.0: 0.06305846238191437}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1324,7 +1324,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 595.0: 0.01078339685864043, 534.0: 0.051506884489296745}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 595.0: 0.01082528839563314, 534.0: 0.054145179905543954}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1333,7 +1333,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.1231294452347084}</t>
+    <t>{580.0: 0.12344552196235026}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.09019514181453697, 703.0: 0.21526664199662843}</t>
+    <t>{147.0: 0.08332082709949916, 703.0: 0.19592117614473858}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1357,19 +1357,19 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.0015321154979375368}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9984678845020625}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.059558272455346666, 762.0: 0.0615630433760985}</t>
+    <t>{760.0: 1.0, 761.0: 0.0015297717109908214}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9984702282890092}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.059563655890458374, 762.0: 0.0615630433760985}</t>
   </si>
   <si>
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.729160314791915e-07}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.708178695335117e-07}</t>
   </si>
   <si>
     <t>{773.0: 1.0}</t>
@@ -1420,7 +1420,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9490145101449318}</t>
+    <t>{782.0: 0.9488732196596931}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1435,13 +1435,13 @@
     <t>{204.0: 0.24960611992037463}</t>
   </si>
   <si>
-    <t>{277.0: 0.05003589790342541, 180.0: 0.001001540299018768}</t>
+    <t>{277.0: 0.05089772853972156, 180.0: 0.0016706242288055213}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9986512004316158, 246.0: 0.022602246957110633}</t>
+    <t>{789.0: 0.9986481614996395, 246.0: 0.02258578582408533}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1453,7 +1453,7 @@
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
+    <t>{834.0: 0.5258548522119905}</t>
   </si>
   <si>
     <t>{835.0: 1.0}</t>
@@ -1462,10 +1462,10 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036780614452617912}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1480,7 +1480,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.30832731401302516}</t>
+    <t>{264.0: 0.309399491497436}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1498,7 +1498,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.0245231522327416, 277.0: 0.03624987585658953}</t>
+    <t>{180.0: 0.0051133317298495155, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1516,10 +1516,10 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9322191272051996}</t>
+    <t>{146.0: 0.2650049428046886}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9321741438810724}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1546,7 +1546,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.7926085360069172}</t>
+    <t>{887.0: 0.7914335800110333}</t>
   </si>
   <si>
     <t>{888.0: 0.7154046997389034}</t>
@@ -1573,10 +1573,10 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.02499643873816452}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7102772466218353}</t>
+    <t>{896.0: 1.0, 897.0: 0.024944406380148505}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7110300057167102}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1585,10 +1585,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.09603434816167061, 404.0: 0.009275575382602387}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.43662618654252366}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.09529245920638413, 404.0: 0.009293093466910127}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.43416282576980525}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1606,7 +1606,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1615,13 +1615,13 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.002039538364045994}</t>
+    <t>{921.0: 1.0, 686.0: 0.00202993562456328}</t>
   </si>
   <si>
     <t>{922.0: 0.9818417639429312}</t>
@@ -1633,7 +1633,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.22966962560285759, 762.0: 0.2374004574051698}</t>
+    <t>{141.0: 0.22969038529711314, 762.0: 0.2374004574051698}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1642,10 +1642,10 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 1.0, 930.0: 0.25940540296097114}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.5747205310298182}</t>
+    <t>{929.0: 1.0, 930.0: 0.26421400260033223}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.5606340908206594}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1666,16 +1666,16 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24804456635373645}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.1834781652183478, 497.0: 0.03279947345326898, 731.0: 0.08397950602729068}</t>
+    <t>{593.0: 0.24784505665281187}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.1834781652183478, 497.0: 0.03292407641909376, 731.0: 0.06900789013258028}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1717,16 +1717,16 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
   </si>
   <si>
     <t>{410.0: 0.2834354798085803, 729.0: 0.12623867399284688}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1780,7 +1780,7 @@
     <t>{543.0: 0.6694870438921205, 86.0: 0.33051295610787945}</t>
   </si>
   <si>
-    <t>{108.0: 0.9879188511511285, 144.0: 0.012081148848871666}</t>
+    <t>{108.0: 0.9879188511511283, 144.0: 0.012081148848871666}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1789,7 +1789,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.057901139999098836}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686964}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
@@ -1801,7 +1801,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9583988028432472, 764.0: 0.04160119715675272}</t>
+    <t>{147.0: 0.9583988028432471, 764.0: 0.04160119715675271}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -1816,13 +1816,13 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.5269650010097836, 534.0: 0.47303499899021645}</t>
+    <t>{174.0: 0.529134601041196, 534.0: 0.47086539895880397}</t>
   </si>
   <si>
     <t>{562.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026067}</t>
+    <t>{178.0: 0.9924042536179738, 14.0: 0.007595746382026066}</t>
   </si>
   <si>
     <t>{179.0: 0.9123261843035586, 180.0: 0.0876738156964412}</t>
@@ -1831,7 +1831,7 @@
     <t>{180.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6302430932176811, 171.0: 0.15866130315356802, 593.0: 0.21109560362875093}</t>
+    <t>{184.0: 0.629983382178623, 171.0: 0.15877360106160043, 593.0: 0.21124301675977655}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1843,7 +1843,7 @@
     <t>{206.0: 0.8527388535031846, 785.0: 0.1472611464968153}</t>
   </si>
   <si>
-    <t>{212.0: 0.48788501026694037, 681.0: 0.5121149897330596}</t>
+    <t>{212.0: 0.4878850102669402, 681.0: 0.5121149897330596}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -1870,7 +1870,7 @@
     <t>{251.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740361, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
+    <t>{255.0: 0.8887904297740361, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -1891,7 +1891,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1900,7 +1900,7 @@
     <t>{289.0: 0.6822884034348525, 730.0: 0.3177115965651475}</t>
   </si>
   <si>
-    <t>{292.0: 0.7970762269404803, 139.0: 0.20292377305951967}</t>
+    <t>{292.0: 0.7970762269404804, 139.0: 0.20292377305951967}</t>
   </si>
   <si>
     <t>{298.0: 1.0}</t>
@@ -1912,10 +1912,10 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 0.7520586305564303, 204.0: 0.2479413694435697}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{309.0: 0.75246510949969, 204.0: 0.24753489050030975}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
@@ -1945,7 +1945,7 @@
     <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636364}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352775, 595.0: 0.15419630156472267}</t>
+    <t>{476.0: 0.8459132906894102, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{731.0: 1.0}</t>
@@ -1966,19 +1966,19 @@
     <t>{497.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434108, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.96375012414341, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728286, 702.0: 0.6112044817927171}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124715, 837.0: 0.18177668218752852}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{249.0: 0.3887955182072831, 702.0: 0.6112044817927171}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664717, 837.0: 0.18169373973352793}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -1990,7 +1990,7 @@
     <t>{545.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587966, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -2014,10 +2014,10 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7620095020848972, 837.0: 0.169288207838767, 922.0: 0.06870229007633588}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2032,9 +2032,6 @@
     <t>{629.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{226.0: 0.5, 729.0: 0.5}</t>
   </si>
   <si>
@@ -2047,13 +2044,13 @@
     <t>{615.0: 0.5922794117647059, 698.0: 0.11176470588235297, 751.0: 0.2959558823529412}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.2921423774345197}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.29077540106951866}</t>
   </si>
   <si>
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.948814149805708, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+    <t>{86.0: 0.9488141498057081, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
   </si>
   <si>
     <t>{298.0: 0.7904879048790487, 857.0: 0.2095120951209512}</t>
@@ -2071,7 +2068,7 @@
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624017}</t>
+    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624015}</t>
   </si>
   <si>
     <t>{733.0: 0.9015677890611085, 147.0: 0.0984322109388918}</t>
@@ -2089,16 +2086,16 @@
     <t>{147.0: 0.5, 703.0: 0.5}</t>
   </si>
   <si>
-    <t>{746.0: 0.989985462768535, 691.0: 0.01001453723146503}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.2037440832007895, 595.0: 0.037144060913161095, 534.0: 0.19648093841642228}</t>
+    <t>{746.0: 0.9899854627685347, 691.0: 0.01001453723146503}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.2037704826754968, 595.0: 0.037117661438453804, 534.0: 0.19648093841642228}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787177, 917.0: 0.07999122892128212}</t>
+    <t>{754.0: 0.8492529563266304, 917.0: 0.15074704367336975}</t>
   </si>
   <si>
     <t>{760.0: 0.9933230611196713, 761.0: 0.00667693888032871}</t>
@@ -2107,7 +2104,7 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.05790113999909882}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.05781623180568697}</t>
   </si>
   <si>
     <t>{772.0: 0.9882429784454605, 493.0: 0.011552824787393208, 108.0: 0.00020172983560795793, 144.0: 2.46693153835297e-06}</t>
@@ -2125,13 +2122,13 @@
     <t>{789.0: 0.9759889445500086, 246.0: 0.024011055449991364}</t>
   </si>
   <si>
-    <t>{837.0: 0.9689657749414813, 486.0: 0.031034225058518633}</t>
+    <t>{837.0: 0.9689657749414811, 486.0: 0.031034225058518633}</t>
   </si>
   <si>
     <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200547}</t>
   </si>
   <si>
-    <t>{180.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{180.0: 0.1391509433962264, 277.0: 0.8608490566037734}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697807, 976.0: 0.12672623883021933}</t>
@@ -2146,7 +2143,7 @@
     <t>{896.0: 0.6231633535004322, 897.0: 0.37683664649956783}</t>
   </si>
   <si>
-    <t>{782.0: 0.11011414486022411, 930.0: 0.8573483060191543, 404.0: 0.03253754912062153}</t>
+    <t>{782.0: 0.11021464052247715, 930.0: 0.8574692422575381, 404.0: 0.032316117219984695}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -2161,7 +2158,7 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.942098860000901, 762.0: 0.05790113999909883}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.05781623180568698}</t>
   </si>
   <si>
     <t>{929.0: 0.6933085501858736, 930.0: 0.3066914498141264}</t>
@@ -2170,22 +2167,22 @@
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.388360061867428, 702.0: 0.611639938132572}</t>
+    <t>{249.0: 0.3883600618674283, 702.0: 0.611639938132572}</t>
   </si>
   <si>
     <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.3434073281626103}</t>
   </si>
   <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.48776371308016886}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587602, 494.0: 0.0994644223412395}</t>
+    <t>{785.0: 0.49782797567332765, 206.0: 0.5021720243266724}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786259, 494.0: 0.09923664122137404}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031137, 495.0: 0.035602220613082304}</t>
@@ -4235,7 +4232,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4246,7 +4243,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4257,29 +4254,29 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>614</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>614</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4290,51 +4287,51 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>615</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>617</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4356,40 +4353,40 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>618</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>167</v>
+        <v>619</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4400,7 +4397,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4411,7 +4408,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4422,7 +4419,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4444,7 +4441,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4455,62 +4452,62 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>620</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>622</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4521,7 +4518,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4532,7 +4529,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4543,7 +4540,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4554,51 +4551,51 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>623</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>625</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4609,7 +4606,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4620,7 +4617,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4642,7 +4639,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4653,7 +4650,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4664,29 +4661,29 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>626</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>194</v>
+        <v>626</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4697,29 +4694,29 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>627</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>627</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4730,51 +4727,51 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>628</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>628</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>584</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>584</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4785,7 +4782,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4796,29 +4793,29 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>629</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>206</v>
+        <v>629</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4829,7 +4826,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4840,7 +4837,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4851,7 +4848,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4862,7 +4859,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4873,7 +4870,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4884,84 +4881,84 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>630</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>630</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>631</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>219</v>
+        <v>634</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4972,7 +4969,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4983,7 +4980,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4994,7 +4991,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5005,7 +5002,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -5016,7 +5013,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -5027,7 +5024,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -6738,7 +6735,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6771,7 +6768,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6804,7 +6801,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6848,7 +6845,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6870,7 +6867,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6914,7 +6911,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6958,7 +6955,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6991,7 +6988,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7002,7 +6999,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7035,7 +7032,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7068,7 +7065,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7079,7 +7076,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7134,7 +7131,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7145,7 +7142,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7178,7 +7175,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7189,7 +7186,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7200,7 +7197,7 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7266,7 +7263,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7299,7 +7296,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7310,7 +7307,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7343,7 +7340,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7365,7 +7362,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7398,7 +7395,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7431,7 +7428,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7464,7 +7461,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7475,7 +7472,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7486,7 +7483,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7596,7 +7593,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7673,7 +7670,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7695,7 +7692,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7728,7 +7725,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7750,7 +7747,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7772,7 +7769,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7849,7 +7846,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7860,7 +7857,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7981,7 +7978,7 @@
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8025,7 +8022,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8058,7 +8055,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8113,7 +8110,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8157,7 +8154,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8168,7 +8165,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8256,7 +8253,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8300,7 +8297,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8322,7 +8319,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8388,7 +8385,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8432,7 +8429,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8443,7 +8440,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8476,7 +8473,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -8509,7 +8506,7 @@
         <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -8520,7 +8517,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8553,7 +8550,7 @@
         <v>546</v>
       </c>
       <c r="C545" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -8608,7 +8605,7 @@
         <v>551</v>
       </c>
       <c r="C550" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -8630,7 +8627,7 @@
         <v>553</v>
       </c>
       <c r="C552" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -8696,7 +8693,7 @@
         <v>559</v>
       </c>
       <c r="C558" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -8729,7 +8726,7 @@
         <v>562</v>
       </c>
       <c r="C561" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -8773,7 +8770,7 @@
         <v>566</v>
       </c>
       <c r="C565" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -8784,7 +8781,7 @@
         <v>567</v>
       </c>
       <c r="C566" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -8795,7 +8792,7 @@
         <v>568</v>
       </c>
       <c r="C567" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -8806,7 +8803,7 @@
         <v>569</v>
       </c>
       <c r="C568" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -8817,7 +8814,7 @@
         <v>570</v>
       </c>
       <c r="C569" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="570" spans="1:3">
